--- a/xls/Conditions.xlsx
+++ b/xls/Conditions.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -360,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -376,21 +382,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -399,16 +399,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -419,38 +413,26 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -459,16 +441,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -479,138 +455,96 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -619,18 +553,12 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -639,18 +567,12 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -659,16 +581,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -679,56 +595,38 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -736,59 +634,41 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -799,56 +679,38 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -859,16 +721,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -876,19 +732,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -896,19 +746,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -916,41 +760,29 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -959,13 +791,2051 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
